--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,52 +52,55 @@
     <t>complaints</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>fake</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
@@ -106,27 +109,27 @@
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
@@ -142,184 +145,187 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>well</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>ensure</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>give</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increased</t>
+    <t>available</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>make</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>stock</t>
+    <t>19</t>
   </si>
   <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>toilet</t>
   </si>
   <si>
     <t>food</t>
@@ -683,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -773,16 +779,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -794,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -823,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -873,16 +879,16 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -894,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -923,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -952,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -994,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1002,7 +1008,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.76</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -1020,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1044,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1052,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1070,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.84375</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1094,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1102,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.684931506849315</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1120,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1144,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1152,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1170,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1194,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1202,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1220,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1244,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1273,16 +1279,16 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.8</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1294,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1302,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5384615384615384</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1320,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1344,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1352,37 +1358,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5384615384615384</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1394,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1402,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5263157894736842</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1420,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1444,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1452,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5161290322580645</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1470,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.7727272727272727</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1494,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1502,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4193548387096774</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1520,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K18">
         <v>0.746031746031746</v>
@@ -1552,7 +1558,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4102564102564102</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -1570,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.7450980392156863</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1594,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1602,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4054054054054054</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1620,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.7358490566037735</v>
+        <v>0.71875</v>
       </c>
       <c r="L20">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="M20">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1644,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1652,7 +1658,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4054054054054054</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -1670,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21">
         <v>0.6914893617021277</v>
@@ -1702,13 +1708,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3888888888888889</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1720,31 +1726,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L22">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>35</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>16</v>
-      </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1752,13 +1758,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3585271317829458</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C23">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1770,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.6458333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1794,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1802,13 +1808,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3557046979865772</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C24">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="D24">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1820,19 +1826,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>96</v>
+        <v>324</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.6318537859007833</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L24">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1844,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1852,13 +1858,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3466666666666667</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1870,19 +1876,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1894,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1902,49 +1908,49 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3389830508474576</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26">
+        <v>0.6</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>30</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>20</v>
-      </c>
-      <c r="D26">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>39</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26">
-        <v>0.5925925925925926</v>
-      </c>
-      <c r="L26">
-        <v>16</v>
-      </c>
-      <c r="M26">
-        <v>16</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1973,16 +1979,16 @@
         <v>126</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.5911764705882353</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L27">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1994,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2002,13 +2008,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2941176470588235</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2020,19 +2026,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2044,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2052,13 +2058,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2745098039215687</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2070,19 +2076,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.5393258426966292</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2094,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2102,38 +2108,38 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2597402597402597</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>67</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L30">
         <v>20</v>
       </c>
-      <c r="D30">
+      <c r="M30">
         <v>20</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>57</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30">
-        <v>0.5254237288135594</v>
-      </c>
-      <c r="L30">
-        <v>155</v>
-      </c>
-      <c r="M30">
-        <v>155</v>
-      </c>
       <c r="N30">
         <v>1</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2152,13 +2158,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2444444444444444</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2170,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>0.5111111111111111</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2194,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2202,13 +2208,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2375</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2220,19 +2226,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2244,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2252,13 +2258,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1984126984126984</v>
+        <v>0.225</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2270,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K33">
         <v>0.5</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2294,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2302,7 +2308,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1260053619302949</v>
+        <v>0.1865079365079365</v>
       </c>
       <c r="C34">
         <v>47</v>
@@ -2320,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>326</v>
+        <v>205</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K34">
-        <v>0.4769230769230769</v>
+        <v>0.497907949790795</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2344,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2352,37 +2358,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005362776025236593</v>
+        <v>0.1099195710455764</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E35">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>3153</v>
+        <v>332</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K35">
-        <v>0.4705882352941176</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2394,21 +2400,45 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.004722921914357683</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>0.62</v>
+      </c>
+      <c r="F36">
+        <v>0.38</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>3161</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>0.4657534246575342</v>
+        <v>0.475</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2420,21 +2450,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K37">
-        <v>0.4642857142857143</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2446,21 +2476,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K38">
-        <v>0.4602510460251046</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L38">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2472,15 +2502,15 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>129</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K39">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L39">
         <v>30</v>
@@ -2498,21 +2528,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>0.425</v>
+        <v>0.453125</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2524,21 +2554,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K41">
-        <v>0.4186046511627907</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2550,21 +2580,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.4102564102564102</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2576,21 +2606,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.4047619047619048</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2602,21 +2632,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>0.3939393939393939</v>
+        <v>0.4</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2628,21 +2658,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K45">
-        <v>0.3829787234042553</v>
+        <v>0.35</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2654,21 +2684,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46">
-        <v>0.359375</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2680,47 +2710,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K47">
-        <v>0.1971830985915493</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N47">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K48">
-        <v>0.1259842519685039</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2732,47 +2762,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49">
-        <v>0.1230769230769231</v>
+        <v>0.1411483253588517</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>114</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K50">
-        <v>0.1172248803827751</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="L50">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2784,21 +2814,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>369</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K51">
-        <v>0.1057692307692308</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L51">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2810,21 +2840,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>372</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K52">
-        <v>0.09172259507829977</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L52">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="M52">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2836,47 +2866,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>812</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K53">
-        <v>0.08372093023255814</v>
+        <v>0.0929451287793953</v>
       </c>
       <c r="L53">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="M53">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>197</v>
+        <v>810</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K54">
-        <v>0.08372093023255814</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="L54">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2888,21 +2918,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K55">
-        <v>0.0755813953488372</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2914,21 +2944,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K56">
-        <v>0.06215316315205328</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L56">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2940,47 +2970,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>845</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K57">
-        <v>0.05092592592592592</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="L57">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>615</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K58">
-        <v>0.04732510288065844</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2992,21 +3022,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>463</v>
+        <v>848</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K59">
-        <v>0.03975535168195719</v>
+        <v>0.04732510288065844</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3018,21 +3048,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>314</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K60">
-        <v>0.03690888119953864</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="L60">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3044,137 +3074,163 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>835</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K61">
-        <v>0.02901263453439401</v>
+        <v>0.04468412942989214</v>
       </c>
       <c r="L61">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N61">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>2075</v>
+        <v>620</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K62">
-        <v>0.02300884955752212</v>
+        <v>0.0351123595505618</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="N62">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="O62">
-        <v>0.13</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>552</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K63">
-        <v>0.02068252326783868</v>
+        <v>0.03114186851211072</v>
       </c>
       <c r="L63">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>947</v>
+        <v>840</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K64">
-        <v>0.01967741935483871</v>
+        <v>0.01761658031088083</v>
       </c>
       <c r="L64">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="N64">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="O64">
-        <v>0.09999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>3039</v>
+        <v>948</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K65">
+        <v>0.01743060038734668</v>
+      </c>
+      <c r="L65">
+        <v>54</v>
+      </c>
+      <c r="M65">
+        <v>63</v>
+      </c>
+      <c r="N65">
+        <v>0.86</v>
+      </c>
+      <c r="O65">
+        <v>0.14</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66">
+        <v>0.007846829880728186</v>
+      </c>
+      <c r="L66">
+        <v>25</v>
+      </c>
+      <c r="M66">
         <v>40</v>
       </c>
-      <c r="K65">
-        <v>0.009736180904522614</v>
-      </c>
-      <c r="L65">
-        <v>31</v>
-      </c>
-      <c r="M65">
-        <v>48</v>
-      </c>
-      <c r="N65">
-        <v>0.65</v>
-      </c>
-      <c r="O65">
-        <v>0.35</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>3153</v>
+      <c r="N66">
+        <v>0.62</v>
+      </c>
+      <c r="O66">
+        <v>0.38</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>3161</v>
       </c>
     </row>
   </sheetData>
